--- a/inst/xlsx/promoted_startups.xlsx
+++ b/inst/xlsx/promoted_startups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bo/git_repositories/intraday/inst/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370CB9F-2B9F-7149-884D-76917D616703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEA6BE8-565D-F349-B8C3-98E2259EE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FC09E5D3-B38F-B747-86F6-D0E1332C3FB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>http://massivenergy.com/</t>
+  </si>
+  <si>
+    <t>Hedgeblue</t>
+  </si>
+  <si>
+    <t>https://hedgeblue.com/</t>
+  </si>
+  <si>
+    <t>is a fintech startup focused on financial risk and outlook. Our first product, hedge accounting is mainly used by YEKDEM renewable companies, domestic coal plants (EUAS incentive) and electriticy retail companies to properly report their income statement and avoid large FX fluctuations with their IFRS reporting.</t>
   </si>
 </sst>
 </file>
@@ -423,13 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DABB3E-7E48-6340-BC5E-CF28FEF9365B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -462,6 +474,17 @@
       </c>
       <c r="C3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
